--- a/planilhas-comuns/receitas-despesas.xlsx
+++ b/planilhas-comuns/receitas-despesas.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lopes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Portfólio\estudos-planilhas\planilhas-comuns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382EE00-5DA2-455B-AB97-CDE35EB51FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20958047-9678-455B-AE20-42F9954B86E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{C5B6B0DD-3CA3-49BC-B751-5DB0A7EA0A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividade 2 - Receita e Despesa" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>TRANSAÇÃO 1</t>
   </si>
@@ -163,9 +162,6 @@
   </si>
   <si>
     <t>(–) Pagto despesas aluguel e salário</t>
-  </si>
-  <si>
-    <t>PATRIMÔNIO LÍQUIDO</t>
   </si>
   <si>
     <t xml:space="preserve">Capital Social </t>
@@ -882,24 +878,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,6 +915,24 @@
     </xf>
     <xf numFmtId="44" fontId="16" fillId="15" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1449,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB9B93-3A69-4D3E-9E1F-AD6DF31A5779}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1470,22 +1466,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="K1" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="K1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1515,11 +1511,11 @@
       <c r="K2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="44"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="45"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1587,13 +1583,13 @@
       <c r="K4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="40">
         <v>3000</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="41">
         <v>300</v>
       </c>
     </row>
@@ -1625,13 +1621,13 @@
       <c r="K5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="42">
         <v>2000</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="43">
         <v>90</v>
       </c>
     </row>
@@ -1663,13 +1659,13 @@
       <c r="K6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="40">
         <v>4000</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="32">
         <f>N4-N5</f>
         <v>210</v>
       </c>
@@ -1702,7 +1698,7 @@
       <c r="K7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="42">
         <v>1400</v>
       </c>
       <c r="M7" s="21" t="s">
@@ -1738,11 +1734,11 @@
       <c r="K8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="42">
         <v>90</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N8" s="24"/>
     </row>
@@ -1774,12 +1770,12 @@
       <c r="K9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="31">
         <f>L4 - L5 + L6 - L7 - L8</f>
         <v>3510</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="24"/>
     </row>
@@ -1817,7 +1813,7 @@
       <c r="M10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="41">
         <v>3000</v>
       </c>
     </row>
@@ -1835,7 +1831,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>33</v>
@@ -1847,9 +1843,9 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="46">
+        <v>44</v>
+      </c>
+      <c r="L13" s="40">
         <v>2000</v>
       </c>
       <c r="M13" s="21" t="s">
@@ -1859,9 +1855,9 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="46">
+        <v>45</v>
+      </c>
+      <c r="L14" s="40">
         <v>100</v>
       </c>
       <c r="M14" s="21" t="s">
@@ -1873,7 +1869,7 @@
       <c r="K15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="44">
         <f>SUM(L13:L14)</f>
         <v>2100</v>
       </c>
@@ -1896,7 +1892,7 @@
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>33</v>
@@ -1908,9 +1904,9 @@
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="46">
+        <v>47</v>
+      </c>
+      <c r="L18" s="40">
         <v>300</v>
       </c>
       <c r="M18" s="21" t="s">
@@ -1920,9 +1916,9 @@
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K19" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="48">
+        <v>48</v>
+      </c>
+      <c r="L19" s="42">
         <v>90</v>
       </c>
       <c r="M19" s="21" t="s">
@@ -1934,7 +1930,7 @@
       <c r="K20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="44">
         <f>L18-L19</f>
         <v>210</v>
       </c>
@@ -1957,16 +1953,16 @@
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="37">
+        <v>49</v>
+      </c>
+      <c r="L22" s="31">
         <f>SUM(L20,L15,L9)</f>
         <v>5820</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="38">
+        <v>49</v>
+      </c>
+      <c r="N22" s="32">
         <f>SUM(N6,N10)</f>
         <v>3210</v>
       </c>
@@ -1985,47 +1981,47 @@
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K24" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="23"/>
       <c r="M24" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" s="24"/>
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="42">
+        <v>90</v>
+      </c>
+      <c r="M25" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="48">
-        <v>90</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="47">
+      <c r="N25" s="41">
         <v>4000</v>
       </c>
     </row>
     <row r="26" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="42">
+        <v>400</v>
+      </c>
+      <c r="M26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="48">
-        <v>400</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="47">
+      <c r="N26" s="41">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="48">
+        <v>56</v>
+      </c>
+      <c r="L27" s="42">
         <v>1000</v>
       </c>
       <c r="M27" s="21" t="s">
@@ -2035,16 +2031,16 @@
     </row>
     <row r="28" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="37">
+        <v>60</v>
+      </c>
+      <c r="L28" s="31">
         <f>SUM(L25:L27)</f>
         <v>1490</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="N28" s="38">
+        <v>57</v>
+      </c>
+      <c r="N28" s="32">
         <f>SUM(N25:N26)</f>
         <v>4100</v>
       </c>
@@ -2053,26 +2049,26 @@
       <c r="K29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="40" t="s">
+      <c r="L29" s="34" t="s">
         <v>33</v>
       </c>
       <c r="M29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="42"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="11:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="43">
+      <c r="K30" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="37">
         <f>SUM(L22,L28)</f>
         <v>7310</v>
       </c>
-      <c r="M30" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="43">
+      <c r="M30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="37">
         <f>SUM(N22,N28)</f>
         <v>7310</v>
       </c>
@@ -2086,422 +2082,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB118B2F-C9BC-40D1-B19B-0243777BC663}">
-  <dimension ref="L4:Q32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L26" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L30" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L32" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>